--- a/documents/scoping/CoS.xlsx
+++ b/documents/scoping/CoS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unibo\PM\pm-Cookbook\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unibo\PM\pm-Cookbook\documents\scoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C848218-6928-492C-9BB7-BD423C323AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68747578-BEE3-4523-81BB-F52AF9C86A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <t>Condition of Satisfaction</t>
   </si>
   <si>
-    <t>I sistemi cloud permettano di evitare installazioni aggiuntive e
-garantiscano la scalabilità delle risorse in occasione di picchi di carico.</t>
-  </si>
-  <si>
     <t>Documentazione completa del software</t>
   </si>
   <si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>Uso di sistemi cloud</t>
+  </si>
+  <si>
+    <t>I sistemi cloud permettano di evitare installazioni aggiuntive e
+garantiscano la scalabilità delle risorse in occasione di picchi di carico</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>16</v>
@@ -721,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
@@ -736,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>16</v>
@@ -750,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>16</v>
@@ -769,10 +769,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>16</v>
